--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 3/03-02-the-choose-function.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 3/03-02-the-choose-function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{42D887AD-9F27-4485-BBF5-3D0731A5149C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5575500C-9416-4BD4-AA6E-D72617A96C6B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18811BE-C2D5-4D6E-B60A-DB3DABA44167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="14712" windowHeight="12180" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="6312" yWindow="1896" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="CHOOSE" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>Jamie Dean</t>
   </si>
@@ -110,6 +110,33 @@
   </si>
   <si>
     <t>Quarter (CHOOSE)</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>using VLOOK</t>
+  </si>
+  <si>
+    <t>using CHOOSE</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Create a random job title</t>
   </si>
 </sst>
 </file>
@@ -117,7 +144,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -180,7 +207,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -466,24 +493,33 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A3:M18"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.3984375" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="6" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="10.296875" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -499,27 +535,53 @@
       <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="str">
+        <f>CHOOSE(2,K3,K4,K5)</f>
+        <v>Blue</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(B4,$F$4:$G$7,2,FALSE)</f>
+        <v>Sales</v>
+      </c>
+      <c r="D4" t="str">
+        <f>CHOOSE(B4,$G$4,$G$5,$G$6,$G$7)</f>
+        <v>Sales</v>
+      </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
         <v>3</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C18" si="0">VLOOKUP(B5,$F$4:$G$7,2,FALSE)</f>
+        <v>Marketing</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D17" si="1">CHOOSE(B5,$G$4,$G$5,$G$6,$G$7)</f>
+        <v>Marketing</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -527,13 +589,24 @@
       <c r="G5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
         <v>2</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>HR</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>HR</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -542,12 +615,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
         <v>4</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Finance</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>Finance</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -556,92 +637,394 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Finance</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>Finance</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Finance</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>Finance</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Marketing</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>Marketing</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>HR</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>HR</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sales</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>Sales</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Sales</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>Sales</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Marketing</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>Marketing</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Marketing</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>Marketing</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sales</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>Sales</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>HR</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>HR</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18">
         <v>2</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>HR</v>
+      </c>
+      <c r="D18" t="str">
+        <f>CHOOSE(B18,$G$4,$G$5,$G$6,$G$7)</f>
+        <v>HR</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,COUNTA($G$29:$G$35)),$G$29,$G$30,$G$31,$G$32,$G$33,$G$34,$G$35)</f>
+        <v>Sales</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,COUNTA($G$29:$G$35)),$G$29,$G$30,$G$31,$G$32,$G$33,$G$34,$G$35)</f>
+        <v>Finance</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" ref="B29:C42" ca="1" si="2">CHOOSE(RANDBETWEEN(1,COUNTA($G$29:$G$35)),$G$29,$G$30,$G$31,$G$32,$G$33,$G$34,$G$35)</f>
+        <v>HR</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Development</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>HR</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,COUNTA($G$29:$G$35)),$G$29,$G$30,$G$31,$G$32,$G$33,$G$34,$G$35)</f>
+        <v>Projects</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>HR</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Projects</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Marketing</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Marketing</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>IT</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Marketing</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Finance</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Projects</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -653,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FA15AF-A3AB-493F-907C-80112B0A66B4}">
   <dimension ref="A2:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -679,135 +1062,351 @@
       <c r="A3" s="3">
         <v>44197</v>
       </c>
+      <c r="B3">
+        <f>ROUNDUP(MONTH(A3)/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>CHOOSE(MONTH(A3),1,1,1,2,2,2,3,3,3,4,4,4)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44230</v>
       </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B29" si="0">ROUNDUP(MONTH(A4)/3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C29" si="1">CHOOSE(MONTH(A4),1,1,1,2,2,2,3,3,3,4,4,4)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44261</v>
       </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44265</v>
       </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44270</v>
       </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44278</v>
       </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44291</v>
       </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44296</v>
       </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44302</v>
       </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44306</v>
       </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44312</v>
       </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44320</v>
       </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44322</v>
       </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44355</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44389</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44391</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44398</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44410</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44423</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44459</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44467</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44470</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44479</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44480</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44502</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44510</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44532</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
